--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_310__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_310__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5435,7 +5435,7 @@
                   <c:v>54.50047302246094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.12895202636719</c:v>
+                  <c:v>97.12896728515625</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>97.90721130371094</c:v>
@@ -5447,7 +5447,7 @@
                   <c:v>97.43258666992188</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.273681640625</c:v>
+                  <c:v>50.27368545532227</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>97.29425048828125</c:v>
@@ -5465,7 +5465,7 @@
                   <c:v>72.70603179931641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>73.00883483886719</c:v>
+                  <c:v>73.00885009765625</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>11.6613597869873</c:v>
@@ -5480,7 +5480,7 @@
                   <c:v>58.52734756469727</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65.07896423339844</c:v>
+                  <c:v>65.07897186279297</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>57.96053695678711</c:v>
@@ -5513,7 +5513,7 @@
                   <c:v>79.22906494140625</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>97.693359375</c:v>
+                  <c:v>97.69334411621094</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>85.66813659667969</c:v>
@@ -5525,7 +5525,7 @@
                   <c:v>38.10497283935547</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.59632873535156</c:v>
+                  <c:v>89.59634399414062</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>97.57437133789062</c:v>
@@ -5579,7 +5579,7 @@
                   <c:v>89.30284118652344</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55.53622817993164</c:v>
+                  <c:v>55.53623962402344</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>96.3173828125</c:v>
@@ -5588,7 +5588,7 @@
                   <c:v>79.72491455078125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51.36027908325195</c:v>
+                  <c:v>51.36028671264648</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>97.60758972167969</c:v>
@@ -5597,13 +5597,13 @@
                   <c:v>47.54795837402344</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>84.49263000488281</c:v>
+                  <c:v>84.49261474609375</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>98.13510131835938</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96.63523864746094</c:v>
+                  <c:v>96.63525390625</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>97.42405700683594</c:v>
@@ -5621,19 +5621,19 @@
                   <c:v>97.38894653320312</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>62.55538558959961</c:v>
+                  <c:v>62.55538940429688</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>82.11387634277344</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>68.62080383300781</c:v>
+                  <c:v>68.62081909179688</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>83.68075561523438</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>96.52947998046875</c:v>
+                  <c:v>96.52946472167969</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>97.65208435058594</c:v>
@@ -5651,7 +5651,7 @@
                   <c:v>60.31325531005859</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>83.84011840820312</c:v>
+                  <c:v>83.84013366699219</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>65.66978454589844</c:v>
@@ -5672,7 +5672,7 @@
                   <c:v>61.77834320068359</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>92.02191162109375</c:v>
+                  <c:v>92.02192687988281</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>95.94705200195312</c:v>
@@ -6571,7 +6571,7 @@
         <v>96.3035</v>
       </c>
       <c r="F8">
-        <v>97.12895202636719</v>
+        <v>97.12896728515625</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>50.273681640625</v>
+        <v>50.27368545532227</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>72.99850000000001</v>
       </c>
       <c r="F18">
-        <v>73.00883483886719</v>
+        <v>73.00885009765625</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>65.07896423339844</v>
+        <v>65.07897186279297</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>97.2676</v>
       </c>
       <c r="F34">
-        <v>97.693359375</v>
+        <v>97.69334411621094</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F38">
-        <v>89.59632873535156</v>
+        <v>89.59634399414062</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>56.35</v>
       </c>
       <c r="F56">
-        <v>55.53622817993164</v>
+        <v>55.53623962402344</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>51.36027908325195</v>
+        <v>51.36028671264648</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>87.61150000000001</v>
       </c>
       <c r="F62">
-        <v>84.49263000488281</v>
+        <v>84.49261474609375</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>96.90470000000001</v>
       </c>
       <c r="F64">
-        <v>96.63523864746094</v>
+        <v>96.63525390625</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>62.6537</v>
       </c>
       <c r="F70">
-        <v>62.55538558959961</v>
+        <v>62.55538940429688</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>67.25879999999999</v>
       </c>
       <c r="F72">
-        <v>68.62080383300781</v>
+        <v>68.62081909179688</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>86.4927</v>
       </c>
       <c r="F74">
-        <v>96.52947998046875</v>
+        <v>96.52946472167969</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>81.8498</v>
       </c>
       <c r="F80">
-        <v>83.84011840820312</v>
+        <v>83.84013366699219</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>92.9709</v>
       </c>
       <c r="F87">
-        <v>92.02191162109375</v>
+        <v>92.02192687988281</v>
       </c>
     </row>
     <row r="88" spans="1:6">
